--- a/Nature_NETS_NYPS_68Bus_2SG_OtherIBR.xlsx
+++ b/Nature_NETS_NYPS_68Bus_2SG_OtherIBR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-Communication-Isomorphism\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A680BE-4869-48B3-B94F-862A4AE02364}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D8BA0D-AED3-4A44-BC30-3A15E3480F6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3292,7 +3292,7 @@
   <dimension ref="A1:J70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -3362,7 +3362,7 @@
         <v>30.2</v>
       </c>
       <c r="D4" s="14">
-        <f t="shared" ref="D4:D13" si="0">0.25*C4</f>
+        <f t="shared" ref="D4" si="0">0.25*C4</f>
         <v>7.55</v>
       </c>
       <c r="E4" s="14">
@@ -3386,14 +3386,14 @@
         <v>0.05</v>
       </c>
       <c r="F5" s="2">
-        <f>E5/5</f>
+        <f t="shared" ref="F5:F18" si="1">E5/5</f>
         <v>0.01</v>
       </c>
       <c r="H5">
         <v>10</v>
       </c>
-      <c r="I5">
-        <v>1000</v>
+      <c r="I5" s="1">
+        <v>1000000000</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
@@ -3408,14 +3408,14 @@
         <v>0.05</v>
       </c>
       <c r="F6" s="2">
-        <f>E6/5</f>
+        <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
       <c r="H6">
         <v>10</v>
       </c>
-      <c r="I6">
-        <v>1000</v>
+      <c r="I6" s="1">
+        <v>1000000000</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
@@ -3430,14 +3430,14 @@
         <v>0.05</v>
       </c>
       <c r="F7" s="2">
-        <f>E7/5</f>
+        <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
       <c r="H7">
         <v>10</v>
       </c>
-      <c r="I7">
-        <v>1000</v>
+      <c r="I7" s="1">
+        <v>1000000000</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
@@ -3452,14 +3452,14 @@
         <v>0.05</v>
       </c>
       <c r="F8" s="2">
-        <f>E8/5</f>
+        <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
       <c r="H8">
         <v>10</v>
       </c>
-      <c r="I8">
-        <v>1000</v>
+      <c r="I8" s="1">
+        <v>1000000000</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
@@ -3474,14 +3474,14 @@
         <v>0.05</v>
       </c>
       <c r="F9" s="2">
-        <f>E9/5</f>
+        <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
       <c r="H9">
         <v>10</v>
       </c>
-      <c r="I9">
-        <v>1000</v>
+      <c r="I9" s="1">
+        <v>1000000000</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
@@ -3496,14 +3496,14 @@
         <v>0.05</v>
       </c>
       <c r="F10" s="2">
-        <f>E10/5</f>
+        <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
       <c r="H10">
         <v>10</v>
       </c>
-      <c r="I10">
-        <v>1000</v>
+      <c r="I10" s="1">
+        <v>1000000000</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
@@ -3518,14 +3518,14 @@
         <v>0.05</v>
       </c>
       <c r="F11" s="2">
-        <f>E11/5</f>
+        <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
       <c r="H11">
         <v>10</v>
       </c>
-      <c r="I11">
-        <v>1000</v>
+      <c r="I11" s="1">
+        <v>1000000000</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
@@ -3540,14 +3540,14 @@
         <v>0.05</v>
       </c>
       <c r="F12" s="2">
-        <f>E12/5</f>
+        <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
       <c r="H12">
         <v>10</v>
       </c>
-      <c r="I12">
-        <v>1000</v>
+      <c r="I12" s="1">
+        <v>1000000000</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
@@ -3562,14 +3562,14 @@
         <v>0.05</v>
       </c>
       <c r="F13" s="2">
-        <f>E13/5</f>
+        <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
       <c r="H13">
         <v>10</v>
       </c>
-      <c r="I13">
-        <v>1000</v>
+      <c r="I13" s="1">
+        <v>1000000000</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
@@ -3584,14 +3584,14 @@
         <v>0.05</v>
       </c>
       <c r="F14" s="2">
-        <f>E14/5</f>
+        <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
       <c r="H14">
         <v>10</v>
       </c>
-      <c r="I14">
-        <v>1000</v>
+      <c r="I14" s="1">
+        <v>1000000000</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
@@ -3606,14 +3606,14 @@
         <v>0.05</v>
       </c>
       <c r="F15" s="2">
-        <f>E15/5</f>
+        <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
       <c r="H15">
         <v>10</v>
       </c>
-      <c r="I15">
-        <v>1000</v>
+      <c r="I15" s="1">
+        <v>1000000000</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
@@ -3628,14 +3628,14 @@
         <v>0.05</v>
       </c>
       <c r="F16" s="2">
-        <f>E16/5</f>
+        <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
       <c r="H16">
         <v>10</v>
       </c>
-      <c r="I16">
-        <v>1000</v>
+      <c r="I16" s="1">
+        <v>1000000000</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
@@ -3650,14 +3650,14 @@
         <v>0.05</v>
       </c>
       <c r="F17" s="2">
-        <f>E17/5</f>
+        <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
       <c r="H17">
         <v>10</v>
       </c>
-      <c r="I17">
-        <v>1000</v>
+      <c r="I17" s="1">
+        <v>1000000000</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
@@ -3672,14 +3672,14 @@
         <v>0.05</v>
       </c>
       <c r="F18" s="2">
-        <f>E18/5</f>
+        <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
       <c r="H18">
         <v>10</v>
       </c>
-      <c r="I18">
-        <v>1000</v>
+      <c r="I18" s="1">
+        <v>1000000000</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">

--- a/Nature_NETS_NYPS_68Bus_2SG_OtherIBR.xlsx
+++ b/Nature_NETS_NYPS_68Bus_2SG_OtherIBR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-Communication-Isomorphism\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D8BA0D-AED3-4A44-BC30-3A15E3480F6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C14BF5C-3B5F-4B97-B762-104AEC45D90C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3292,7 +3292,7 @@
   <dimension ref="A1:J70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -3344,10 +3344,11 @@
         <v>75</v>
       </c>
       <c r="E3" s="14">
-        <v>4.1000000000000003E-3</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="F3" s="14">
-        <v>6.8333333333333343E-4</v>
+        <f>E3/10</f>
+        <v>1.0000000000000002E-6</v>
       </c>
       <c r="G3" s="7"/>
     </row>
@@ -3366,10 +3367,11 @@
         <v>7.55</v>
       </c>
       <c r="E4" s="14">
-        <v>3.5000000000000003E-2</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="F4" s="14">
-        <v>5.8333333333333336E-3</v>
+        <f>E4/10</f>
+        <v>1.0000000000000002E-6</v>
       </c>
       <c r="G4" s="7"/>
       <c r="J4" s="2"/>
